--- a/public/report/monitoring/bsm.xlsx
+++ b/public/report/monitoring/bsm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\golang\src\github.com\bbliong\sim-bmm\public\report\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE3431-E067-4356-9C63-29FB96CFAB90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E8E1D-5C2A-4140-8AC1-1DC224764DE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="3525" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,157 +618,135 @@
       <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A1:T3"/>
+    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
